--- a/src/main/resources/task/tmp.xlsx
+++ b/src/main/resources/task/tmp.xlsx
@@ -205,22 +205,23 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4:C4"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="33.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="19.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="33.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="17.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="33.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="33.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="20.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="16.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
